--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="442">
   <si>
     <t>id</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Soldier of Godrick</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>https://eldenring.fanapis.com/images/bosses/17f6982dbf7l0i1v1r3i4p5cy7kvcs.png</t>
   </si>
   <si>
@@ -1279,9 +1273,6 @@
     <t>Patches</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Golden Rune [1]</t>
   </si>
   <si>
@@ -1346,21 +1337,6 @@
   </si>
   <si>
     <t>https://eldenring.fanapis.com/images/bosses/17f69ca8b2al0i1v1pg987jdl4cd68.png</t>
-  </si>
-  <si>
-    <t>Mimic Tear</t>
-  </si>
-  <si>
-    <t>Larval Tear</t>
-  </si>
-  <si>
-    <t>https://eldenring.fanapis.com/images/bosses/17f69e11c75l0i1uxa6gb2wpb12ipb.png</t>
-  </si>
-  <si>
-    <t>Stray Mimic Tear</t>
-  </si>
-  <si>
-    <t>Blackflame Monk Amon</t>
   </si>
 </sst>
 </file>
@@ -1405,13 +1381,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1656,7 +1632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>4.3113906E7</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1667,4803 +1643,4143 @@
       <c r="D2" s="1">
         <v>384.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>4.340091E7</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>1328.0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.970191E7</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1417.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1417.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>2.100101E7</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1668.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1668.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>3.400111E7</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
         <v>2190.0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="E6" s="2">
+        <v>0.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>4.260011E7</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
         <v>1200.0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="E7" s="2">
+        <v>0.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>4.120091E7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1218.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1218.0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>4.603091E7</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
         <v>1295.0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
+      <c r="E9" s="2">
+        <v>0.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>4.660091E7</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5974.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5974.0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>3.6640012E7</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>781.0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
+      <c r="E11" s="2">
+        <v>0.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>3.4510912E7</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1360.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1360.0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>4.2600512E7</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4">
         <v>1347.0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
+      <c r="E13" s="2">
+        <v>0.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>4.4800912E7</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2483.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2483.0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>4.6300912E7</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3311.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3311.0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>4.290001E7</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1450.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1450.0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>3.4600913E7</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2199.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2199.0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.500001E7</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2782.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2782.0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>3.150001E7</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1665.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1665.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>3.100001E7</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2495.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2495.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>3.251001E7</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2889.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2889.0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>4.950001E7</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3176.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3176.0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>4.980001E7</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3442.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3442.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>2.1300014E7</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4">
         <v>4174.0</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
+      <c r="E24" s="2">
+        <v>0.0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>3.1501012E7</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="3">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4">
         <v>1823.0</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
+      <c r="E25" s="2">
+        <v>0.0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>7.1000012E7</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2570.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2570.0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>4.8100012E7</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3163.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3163.0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>4.9800012E7</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="3">
+        <v>79</v>
+      </c>
+      <c r="D28" s="4">
         <v>3769.0</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
+      <c r="E28" s="2">
+        <v>0.0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>4.7500014E7</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6080.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="3">
-        <v>6080.0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>4.500001E7</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3200.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3200.0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>4.650096E7</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4372.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4372.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>3.664092E7</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <v>691.0</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
+      <c r="E32" s="2">
+        <v>0.0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>3.350092E7</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3">
+        <v>92</v>
+      </c>
+      <c r="D33" s="4">
         <v>1595.0</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
+      <c r="E33" s="2">
+        <v>0.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>4.140292E7</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="3">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4">
         <v>1722.0</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
+      <c r="E34" s="2">
+        <v>0.0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>3.800092E7</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1980.0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1980.0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>4.290092E7</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="3">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4">
         <v>1985.0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
+      <c r="E36" s="2">
+        <v>0.0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>4.020092E7</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="3">
+        <v>101</v>
+      </c>
+      <c r="D37" s="4">
         <v>3077.0</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>104</v>
+      <c r="E37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>3.350192E7</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="3">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4">
         <v>1595.0</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
+      <c r="E38" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>3.350292E7</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>1595.0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
+      <c r="E39" s="2">
+        <v>0.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>2.100082E7</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="3">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4">
         <v>3312.0</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
+      <c r="E40" s="2">
+        <v>0.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>3.1811024E7</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2204.0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2204.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>4.260192E7</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="3">
+        <v>112</v>
+      </c>
+      <c r="D42" s="4">
         <v>2383.0</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>10</v>
+      <c r="E42" s="2">
+        <v>0.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>4.6900008E7</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2596.0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2596.0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>3.2520921E7</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4214.0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4214.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>4.6700964E7</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4393.0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="3">
-        <v>4393.0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>4.6400007E7</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="4">
+        <v>6147.0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6147.0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>3.664004E7</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="3">
+        <v>126</v>
+      </c>
+      <c r="D47" s="4">
         <v>1467.0</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
+      <c r="E47" s="2">
+        <v>0.0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>3.300194E7</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="3">
+        <v>129</v>
+      </c>
+      <c r="D48" s="4">
         <v>1631.0</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
+      <c r="E48" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>3.300094E7</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>1631.0</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
+      <c r="E49" s="2">
+        <v>0.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>3.800094E7</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2102.0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2102.0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>100</v>
+      <c r="H50" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>3.800194E7</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="3">
+        <v>135</v>
+      </c>
+      <c r="D51" s="4">
         <v>2102.0</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>100</v>
+      <c r="E51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>4.340194E7</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="3">
+        <v>137</v>
+      </c>
+      <c r="D52" s="4">
         <v>2800.0</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
+      <c r="E52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>4.340094E7</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <v>2800.0</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>13</v>
+      <c r="E53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>3.400094E7</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3079.0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3079.0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>4.680194E7</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="3">
+        <v>142</v>
+      </c>
+      <c r="D55" s="4">
         <v>4554.0</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
+      <c r="E55" s="2">
+        <v>0.0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>80</v>
+        <v>143</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>3.350294E7</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="3">
+        <v>145</v>
+      </c>
+      <c r="D56" s="4">
         <v>3358.0</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
+      <c r="E56" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>3.350094E7</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>3358.0</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
+      <c r="E57" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>3.350194E7</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="3">
+        <v>147</v>
+      </c>
+      <c r="D58" s="4">
         <v>3358.0</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>10</v>
+      <c r="E58" s="2">
+        <v>0.0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>4.260194E7</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="3">
+        <v>150</v>
+      </c>
+      <c r="D59" s="4">
         <v>2531.0</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
+      <c r="E59" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>4.260094E7</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <v>2531.0</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
+      <c r="E60" s="2">
+        <v>0.0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>4.910094E7</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="3">
+        <v>153</v>
+      </c>
+      <c r="D61" s="4">
         <v>7141.0</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>10</v>
+      <c r="E61" s="2">
+        <v>0.0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>4.9100026E7</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7141.0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="3">
-        <v>7141.0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>2.0300024E7</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="3">
+        <v>158</v>
+      </c>
+      <c r="D63" s="4">
         <v>3493.0</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>10</v>
+      <c r="E63" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>2.0310024E7</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="3">
+        <v>158</v>
+      </c>
+      <c r="D64" s="4">
         <v>4097.0</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
+      <c r="E64" s="2">
+        <v>0.0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>4.820092E7</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2306.0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2306.0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>3.550093E7</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="3">
+        <v>163</v>
+      </c>
+      <c r="D66" s="4">
         <v>3128.0</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
+      <c r="E66" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>3.350193E7</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="3">
+        <v>165</v>
+      </c>
+      <c r="D67" s="4">
         <v>1892.0</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
+      <c r="E67" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>3.350093E7</v>
+        <v>67.0</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <v>1892.0</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>10</v>
+      <c r="E68" s="2">
+        <v>0.0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>2.100093E7</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="3">
+        <v>168</v>
+      </c>
+      <c r="D69" s="4">
         <v>3929.0</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>10</v>
+      <c r="E69" s="2">
+        <v>0.0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>3.600192E7</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4058.0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="3">
-        <v>4058.0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>3.701193E7</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="1">
         <v>989.0</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>177</v>
+      <c r="E71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>3.460093E7</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="3">
+        <v>176</v>
+      </c>
+      <c r="D72" s="4">
         <v>3569.0</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>10</v>
+      <c r="E72" s="2">
+        <v>0.0</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>3.150002E7</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" s="3">
+        <v>177</v>
+      </c>
+      <c r="D73" s="4">
         <v>2704.0</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>10</v>
+      <c r="E73" s="2">
+        <v>0.0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>58</v>
+        <v>178</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>4.603093E7</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="3">
+        <v>179</v>
+      </c>
+      <c r="D74" s="4">
         <v>3050.0</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>10</v>
+      <c r="E74" s="2">
+        <v>0.0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>4.130103E7</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="3">
+        <v>181</v>
+      </c>
+      <c r="D75" s="4">
         <v>3284.0</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
+      <c r="E75" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>7.100003E7</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="3">
+        <v>182</v>
+      </c>
+      <c r="D76" s="4">
         <v>3811.0</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>10</v>
+      <c r="E76" s="2">
+        <v>0.0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>77</v>
+        <v>183</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>3.4600941E7</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="3">
+        <v>185</v>
+      </c>
+      <c r="D77" s="4">
         <v>3569.0</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>10</v>
+      <c r="E77" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>2.5000941E7</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <v>4515.0</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>10</v>
+      <c r="E78" s="2">
+        <v>0.0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>3.100002E7</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D79" s="3">
+        <v>188</v>
+      </c>
+      <c r="D79" s="4">
         <v>4050.0</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>10</v>
+      <c r="E79" s="2">
+        <v>0.0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>4.502192E7</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" s="3">
+        <v>190</v>
+      </c>
+      <c r="D80" s="4">
         <v>4405.0</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>193</v>
+      <c r="E80" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>4.810002E7</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="3">
+        <v>192</v>
+      </c>
+      <c r="D81" s="4">
         <v>4690.0</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>10</v>
+      <c r="E81" s="2">
+        <v>0.0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>80</v>
+        <v>193</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>4.810092E7</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D82" s="3">
+        <v>194</v>
+      </c>
+      <c r="D82" s="4">
         <v>4690.0</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>10</v>
+      <c r="E82" s="2">
+        <v>0.0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>80</v>
+        <v>195</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>4.601092E7</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" s="3">
+        <v>196</v>
+      </c>
+      <c r="D83" s="4">
         <v>5109.0</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>10</v>
+      <c r="E83" s="2">
+        <v>0.0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>4.950002E7</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="3">
+        <v>198</v>
+      </c>
+      <c r="D84" s="4">
         <v>5155.0</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>10</v>
+      <c r="E84" s="2">
+        <v>0.0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>4.980002E7</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="3">
+        <v>199</v>
+      </c>
+      <c r="D85" s="4">
         <v>5588.0</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>10</v>
+      <c r="E85" s="2">
+        <v>0.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>4.820093E7</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="3">
+        <v>202</v>
+      </c>
+      <c r="D86" s="4">
         <v>2306.0</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>164</v>
+      <c r="E86" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>4.480093E7</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>5212.0</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>10</v>
+      <c r="E87" s="2">
+        <v>0.0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>43</v>
+        <v>204</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>4.980102E7</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="4">
+        <v>6577.0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="3">
-        <v>6577.0</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>4.4701938E7</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="3">
+        <v>209</v>
+      </c>
+      <c r="D89" s="4">
         <v>3811.0</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>10</v>
+      <c r="E89" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>4.4700938E7</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>3811.0</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>10</v>
+      <c r="E90" s="2">
+        <v>0.0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>3.8100932E7</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2034.0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="3">
-        <v>2034.0</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>3.8102932E7</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" s="3">
+        <v>215</v>
+      </c>
+      <c r="D92" s="4">
         <v>2034.0</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>10</v>
+      <c r="E92" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>3.704094E7</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D93" s="3">
+        <v>216</v>
+      </c>
+      <c r="D93" s="4">
         <v>4095.0</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>10</v>
+      <c r="E93" s="2">
+        <v>0.0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>3.6001933E7</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D94" s="3">
+        <v>217</v>
+      </c>
+      <c r="D94" s="4">
         <v>4907.0</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>10</v>
+      <c r="E94" s="2">
+        <v>0.0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>3.4001133E7</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="3">
+        <v>219</v>
+      </c>
+      <c r="D95" s="4">
         <v>6240.0</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>10</v>
+      <c r="E95" s="2">
+        <v>0.0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>3.1811032E7</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3162.0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D96" s="3">
-        <v>3162.0</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>3.150104E7</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="3">
+        <v>224</v>
+      </c>
+      <c r="D97" s="4">
         <v>3269.0</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>10</v>
+      <c r="E97" s="2">
+        <v>0.0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>58</v>
+        <v>225</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>4.2602932E7</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="3">
+        <v>226</v>
+      </c>
+      <c r="D98" s="4">
         <v>3419.0</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>10</v>
+      <c r="E98" s="2">
+        <v>0.0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>4.1301932E7</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="3">
+        <v>228</v>
+      </c>
+      <c r="D99" s="4">
         <v>3971.0</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>10</v>
+      <c r="E99" s="2">
+        <v>0.0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>3.1000931E7</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="4">
+        <v>4897.0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4897.0</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>2.5001933E7</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="3">
+        <v>234</v>
+      </c>
+      <c r="D101" s="4">
         <v>5460.0</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>55</v>
+      <c r="E101" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>2.5000933E7</v>
+        <v>101.0</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="4">
+        <v>5460.0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D102" s="3">
-        <v>5460.0</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>4.811004E7</v>
+        <v>102.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D103" s="3">
+        <v>238</v>
+      </c>
+      <c r="D103" s="4">
         <v>5671.0</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>10</v>
+      <c r="E103" s="2">
+        <v>0.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>4.6700065E7</v>
+        <v>103.0</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6301.0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D104" s="3">
-        <v>6301.0</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>4.980104E7</v>
+        <v>104.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105" s="3">
+        <v>243</v>
+      </c>
+      <c r="D105" s="4">
         <v>7952.0</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>10</v>
+      <c r="E105" s="2">
+        <v>0.0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>209</v>
+        <v>244</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>3.050014E7</v>
+        <v>105.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D106" s="3">
+        <v>245</v>
+      </c>
+      <c r="D106" s="4">
         <v>9210.0</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>10</v>
+      <c r="E106" s="2">
+        <v>0.0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>4.7701165E7</v>
+        <v>106.0</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="4">
+        <v>5671.0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="H107" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D107" s="3">
-        <v>5671.0</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>4.7700165E7</v>
+        <v>107.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="3">
+        <v>251</v>
+      </c>
+      <c r="D108" s="4">
         <v>5671.0</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>252</v>
+      <c r="E108" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>2.100083E7</v>
+        <v>108.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D109" s="3">
+        <v>252</v>
+      </c>
+      <c r="D109" s="4">
         <v>5413.0</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>10</v>
+      <c r="E109" s="2">
+        <v>0.0</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>19</v>
+        <v>253</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>3.150103E7</v>
+        <v>109.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D110" s="3">
+        <v>254</v>
+      </c>
+      <c r="D110" s="4">
         <v>3725.0</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>10</v>
+      <c r="E110" s="2">
+        <v>0.0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>58</v>
+        <v>255</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>4.580003E7</v>
+        <v>110.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" s="3">
+        <v>256</v>
+      </c>
+      <c r="D111" s="4">
         <v>5876.0</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>10</v>
+      <c r="E111" s="2">
+        <v>0.0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>4.502092E7</v>
+        <v>111.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="3">
+        <v>258</v>
+      </c>
+      <c r="D112" s="4">
         <v>6069.0</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>10</v>
+      <c r="E112" s="2">
+        <v>0.0</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>261</v>
+        <v>85</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>4.680193E7</v>
+        <v>112.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" s="3">
+        <v>260</v>
+      </c>
+      <c r="D113" s="4">
         <v>7009.0</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>10</v>
+      <c r="E113" s="2">
+        <v>0.0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>80</v>
+        <v>261</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>3.560003E7</v>
+        <v>113.0</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="4">
+        <v>7528.0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D114" s="3">
-        <v>7528.0</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>4.730004E7</v>
+        <v>114.0</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" s="4">
+        <v>9572.0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D115" s="3">
-        <v>9572.0</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>3.251003E7</v>
+        <v>115.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116" s="3">
+        <v>269</v>
+      </c>
+      <c r="D116" s="4">
         <v>6461.0</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>64</v>
+      <c r="E116" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>3.251103E7</v>
+        <v>116.0</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D117" s="3">
+      <c r="D117" s="4">
         <v>5384.0</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>10</v>
+      <c r="E117" s="2">
+        <v>0.0</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>64</v>
+        <v>271</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>4.750003E7</v>
+        <v>117.0</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" s="4">
+        <v>12419.0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" s="3">
-        <v>12419.0</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>4.1300032E7</v>
+        <v>118.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="3">
+        <v>275</v>
+      </c>
+      <c r="D119" s="4">
         <v>7515.0</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>10</v>
+      <c r="E119" s="2">
+        <v>0.0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>4.6500265E7</v>
+        <v>119.0</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" s="4">
+        <v>5758.0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D120" s="3">
-        <v>5758.0</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>3.1000033E7</v>
+        <v>120.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D121" s="3">
+        <v>279</v>
+      </c>
+      <c r="D121" s="4">
         <v>6216.0</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>10</v>
+      <c r="E121" s="2">
+        <v>0.0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>61</v>
+        <v>280</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>4.7200134E7</v>
+        <v>121.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D122" s="3">
+        <v>281</v>
+      </c>
+      <c r="D122" s="4">
         <v>7099.0</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>10</v>
+      <c r="E122" s="2">
+        <v>0.0</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>4.9500032E7</v>
+        <v>122.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D123" s="3">
+        <v>282</v>
+      </c>
+      <c r="D123" s="4">
         <v>7911.0</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>10</v>
+      <c r="E123" s="2">
+        <v>0.0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>3.2500033E7</v>
+        <v>123.0</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D124" s="4">
+        <v>8398.0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D124" s="3">
-        <v>8398.0</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>4.9800033E7</v>
+        <v>124.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D125" s="3">
+        <v>286</v>
+      </c>
+      <c r="D125" s="4">
         <v>8575.0</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>10</v>
+      <c r="E125" s="2">
+        <v>0.0</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>70</v>
+        <v>287</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>3.5700038E7</v>
+        <v>125.0</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="4">
+        <v>10060.0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D126" s="3">
-        <v>10060.0</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>2.1300534E7</v>
+        <v>126.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D127" s="3">
+        <v>291</v>
+      </c>
+      <c r="D127" s="4">
         <v>10399.0</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>10</v>
+      <c r="E127" s="2">
+        <v>0.0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>4.6200062E7</v>
+        <v>127.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D128" s="3">
+        <v>293</v>
+      </c>
+      <c r="D128" s="4">
         <v>11170.0</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>10</v>
+      <c r="E128" s="2">
+        <v>0.0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>4.6400032E7</v>
+        <v>128.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="3">
+        <v>295</v>
+      </c>
+      <c r="D129" s="4">
         <v>11191.0</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>10</v>
+      <c r="E129" s="2">
+        <v>0.0</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>127</v>
+        <v>296</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>4.9100032E7</v>
+        <v>129.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D130" s="3">
+        <v>297</v>
+      </c>
+      <c r="D130" s="4">
         <v>12243.0</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>10</v>
+      <c r="E130" s="2">
+        <v>0.0</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>4.5110066E7</v>
+        <v>130.0</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" s="4">
+        <v>12903.0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D131" s="3">
-        <v>12903.0</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>4.6800032E7</v>
+        <v>131.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D132" s="3">
+        <v>301</v>
+      </c>
+      <c r="D132" s="4">
         <v>13010.0</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>10</v>
+      <c r="E132" s="2">
+        <v>0.0</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>4.501004E7</v>
+        <v>132.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D133" s="3">
+        <v>302</v>
+      </c>
+      <c r="D133" s="4">
         <v>23731.0</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>10</v>
+      <c r="E133" s="2">
+        <v>0.0</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>305</v>
+        <v>85</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>7.100095E7</v>
+        <v>133.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D134" s="3">
+        <v>304</v>
+      </c>
+      <c r="D134" s="4">
         <v>6868.0</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>10</v>
+      <c r="E134" s="2">
+        <v>0.0</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>77</v>
+        <v>305</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>2.140305E7</v>
+        <v>134.0</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="4">
+        <v>7871.0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D135" s="3">
-        <v>7871.0</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>2.140315E7</v>
+        <v>135.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D136" s="3">
+        <v>309</v>
+      </c>
+      <c r="D136" s="4">
         <v>6539.0</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>10</v>
+      <c r="E136" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>4.770025E7</v>
+        <v>136.0</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" s="4">
+        <v>8452.0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D137" s="3">
-        <v>8452.0</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>4.510203E7</v>
+        <v>137.0</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="4">
+        <v>9087.0</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D138" s="3">
-        <v>9087.0</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>4.640095E7</v>
+        <v>138.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D139" s="3">
+        <v>316</v>
+      </c>
+      <c r="D139" s="4">
         <v>13141.0</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>10</v>
+      <c r="E139" s="2">
+        <v>0.0</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>3.560095E7</v>
+        <v>139.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D140" s="3">
+        <v>318</v>
+      </c>
+      <c r="D140" s="4">
         <v>9847.0</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>266</v>
+      <c r="E140" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>3.570095E7</v>
+        <v>140.0</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D141" s="3">
+      <c r="D141" s="4">
         <v>11814.0</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>292</v>
+      <c r="E141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>4.140295E7</v>
+        <v>141.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D142" s="3">
+        <v>320</v>
+      </c>
+      <c r="D142" s="4">
         <v>1840.0</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>10</v>
+      <c r="E142" s="2">
+        <v>0.0</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>4.7100038E7</v>
+        <v>142.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D143" s="3">
+        <v>322</v>
+      </c>
+      <c r="D143" s="4">
         <v>30439.0</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>325</v>
+      <c r="E143" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>4.7101038E7</v>
+        <v>143.0</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="4">
+        <v>28735.0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D144" s="3">
-        <v>28735.0</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>2.5001066E7</v>
+        <v>144.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D145" s="3">
+        <v>327</v>
+      </c>
+      <c r="D145" s="4">
         <v>4606.0</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>10</v>
+      <c r="E145" s="2">
+        <v>0.0</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>4.6500262E7</v>
+        <v>145.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D146" s="3">
+        <v>329</v>
+      </c>
+      <c r="D146" s="4">
         <v>7655.0</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>10</v>
+      <c r="E146" s="2">
+        <v>0.0</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>280</v>
+        <v>330</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>4.8001935E7</v>
+        <v>146.0</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D147" s="4">
+        <v>14000.0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D147" s="3">
-        <v>14000.0</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>3.0500051E7</v>
+        <v>147.0</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148" s="4">
+        <v>15541.0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D148" s="3">
-        <v>15541.0</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>3.150005E7</v>
+        <v>148.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D149" s="3">
+        <v>337</v>
+      </c>
+      <c r="D149" s="4">
         <v>6602.0</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>10</v>
+      <c r="E149" s="2">
+        <v>0.0</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>4.810015E7</v>
+        <v>149.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D150" s="3">
+        <v>339</v>
+      </c>
+      <c r="D150" s="4">
         <v>11452.0</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>10</v>
+      <c r="E150" s="2">
+        <v>0.0</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>80</v>
+        <v>195</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>4.980105E7</v>
+        <v>150.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D151" s="3">
+        <v>340</v>
+      </c>
+      <c r="D151" s="4">
         <v>16059.0</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>10</v>
+      <c r="E151" s="2">
+        <v>0.0</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>209</v>
+        <v>341</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>3.5700172E7</v>
+        <v>151.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D152" s="3">
+        <v>343</v>
+      </c>
+      <c r="D152" s="4">
         <v>8000.0</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>292</v>
+      <c r="E152" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>3.5600172E7</v>
+        <v>152.0</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D153" s="3">
+      <c r="D153" s="4">
         <v>6668.0</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>266</v>
+      <c r="E153" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>3.5600972E7</v>
+        <v>153.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D154" s="4">
+        <v>26350.0</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="D154" s="3">
-        <v>26350.0</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>4.760105E7</v>
+        <v>154.0</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D155" s="4">
+        <v>43263.0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D155" s="3">
-        <v>43263.0</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>3.4601952E7</v>
+        <v>155.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D156" s="3">
+        <v>351</v>
+      </c>
+      <c r="D156" s="4">
         <v>9130.0</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>10</v>
+      <c r="E156" s="2">
+        <v>0.0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>3.9702942E7</v>
+        <v>156.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D157" s="3">
+        <v>354</v>
+      </c>
+      <c r="D157" s="4">
         <v>3344.0</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>16</v>
+      <c r="E157" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>3.9701942E7</v>
+        <v>157.0</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D158" s="3">
+      <c r="D158" s="4">
         <v>8306.0</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>10</v>
+      <c r="E158" s="2">
+        <v>0.0</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>16</v>
+        <v>356</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>2.1002922E7</v>
+        <v>158.0</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D159" s="4">
+        <v>17482.0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D159" s="3">
-        <v>17482.0</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>3.4000952E7</v>
+        <v>159.0</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D160" s="4">
+        <v>8800.0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D160" s="3">
-        <v>8800.0</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>2.1100072E7</v>
+        <v>160.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D161" s="3">
+        <v>363</v>
+      </c>
+      <c r="D161" s="4">
         <v>10620.0</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>366</v>
+      <c r="E161" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>2.1101072E7</v>
+        <v>161.0</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="4">
+        <v>5841.0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D162" s="3">
-        <v>5841.0</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>4.503005E7</v>
+        <v>162.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D163" s="3">
+        <v>368</v>
+      </c>
+      <c r="D163" s="4">
         <v>11268.0</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>10</v>
+      <c r="E163" s="2">
+        <v>0.0</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>371</v>
+        <v>85</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>3.5600042E7</v>
+        <v>163.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D164" s="3">
+        <v>370</v>
+      </c>
+      <c r="D164" s="4">
         <v>13596.0</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>10</v>
+      <c r="E164" s="2">
+        <v>0.0</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>266</v>
+        <v>371</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>4.6400942E7</v>
+        <v>164.0</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D165" s="4">
+        <v>18144.0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D165" s="3">
-        <v>18144.0</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>4.6200952E7</v>
+        <v>165.0</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D166" s="4">
+        <v>18617.0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D166" s="3">
-        <v>18617.0</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>4.721007E7</v>
+        <v>166.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D167" s="3">
+        <v>378</v>
+      </c>
+      <c r="D167" s="4">
         <v>11831.0</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>10</v>
+      <c r="E167" s="2">
+        <v>0.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>4.721007E7</v>
+        <v>167.0</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D168" s="3">
+      <c r="D168" s="4">
         <v>10072.0</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>10</v>
+      <c r="E168" s="2">
+        <v>0.0</v>
       </c>
       <c r="G168" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>3.1500042E7</v>
+        <v>168.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D169" s="3">
+        <v>382</v>
+      </c>
+      <c r="D169" s="4">
         <v>7089.0</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>10</v>
+      <c r="E169" s="2">
+        <v>0.0</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>58</v>
+        <v>383</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>3.1000042E7</v>
+        <v>169.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D170" s="3">
+        <v>384</v>
+      </c>
+      <c r="D170" s="4">
         <v>10619.0</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>10</v>
+      <c r="E170" s="2">
+        <v>0.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>61</v>
+        <v>385</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>4.5000042E7</v>
+        <v>170.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D171" s="3">
+        <v>386</v>
+      </c>
+      <c r="D171" s="4">
         <v>11550.0</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>10</v>
+      <c r="E171" s="2">
+        <v>0.0</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>389</v>
+        <v>85</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>4.5021922E7</v>
+        <v>171.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D172" s="3">
+        <v>388</v>
+      </c>
+      <c r="D172" s="4">
         <v>11550.0</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>10</v>
+      <c r="E172" s="2">
+        <v>0.0</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>193</v>
+        <v>85</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>4.7701242E7</v>
+        <v>172.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D173" s="3">
+        <v>389</v>
+      </c>
+      <c r="D173" s="4">
         <v>12297.0</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>10</v>
+      <c r="E173" s="2">
+        <v>0.0</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>314</v>
+        <v>390</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>4.8110042E7</v>
+        <v>173.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D174" s="3">
+        <v>391</v>
+      </c>
+      <c r="D174" s="4">
         <v>12297.0</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>10</v>
+      <c r="E174" s="2">
+        <v>0.0</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>4.5200072E7</v>
+        <v>174.0</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D175" s="4">
+        <v>26651.0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H175" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D175" s="3">
-        <v>26651.0</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>2.1900078E7</v>
+        <v>175.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D176" s="3">
+        <v>396</v>
+      </c>
+      <c r="D176" s="4">
         <v>13339.0</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>399</v>
+      <c r="E176" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>2.2000078E7</v>
+        <v>176.0</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="4">
+        <v>22127.0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D177" s="3">
-        <v>22127.0</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>4.8110052E7</v>
+        <v>177.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D178" s="3">
+        <v>401</v>
+      </c>
+      <c r="D178" s="4">
         <v>12569.0</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>10</v>
+      <c r="E178" s="2">
+        <v>0.0</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>3.2520054E7</v>
+        <v>178.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D179" s="3">
+        <v>403</v>
+      </c>
+      <c r="D179" s="4">
         <v>13397.0</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>10</v>
+      <c r="E179" s="2">
+        <v>0.0</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>3.1500052E7</v>
+        <v>179.0</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D180" s="4">
+        <v>7246.0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D180" s="3">
-        <v>7246.0</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>58</v>
+      <c r="H180" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>3.1501052E7</v>
+        <v>180.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D181" s="3">
+        <v>408</v>
+      </c>
+      <c r="D181" s="4">
         <v>7246.0</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>58</v>
+      <c r="E181" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>4.9801052E7</v>
+        <v>181.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D182" s="3">
+        <v>409</v>
+      </c>
+      <c r="D182" s="4">
         <v>17625.0</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>10</v>
+      <c r="E182" s="2">
+        <v>0.0</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>209</v>
+        <v>410</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>4.8000068E7</v>
+        <v>182.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D183" s="3">
+        <v>411</v>
+      </c>
+      <c r="D183" s="4">
         <v>18389.0</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>10</v>
+      <c r="E183" s="2">
+        <v>0.0</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>335</v>
+        <v>412</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>4.9110052E7</v>
+        <v>183.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D184" s="3">
+        <v>413</v>
+      </c>
+      <c r="D184" s="4">
         <v>25649.0</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>10</v>
+      <c r="E184" s="2">
+        <v>0.0</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>416</v>
+        <v>85</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>2.1200056E7</v>
+        <v>184.0</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D185" s="4">
+        <v>18473.0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D185" s="3">
-        <v>18473.0</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>2.1202056E7</v>
+        <v>185.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D186" s="3">
+        <v>418</v>
+      </c>
+      <c r="D186" s="4">
         <v>14778.0</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>10</v>
+      <c r="E186" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>5.2309001E8</v>
+        <v>186.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D187" s="3">
+        <v>419</v>
+      </c>
+      <c r="D187" s="4">
         <v>1191.0</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>422</v>
+      <c r="E187" s="2">
+        <v>1.0</v>
       </c>
       <c r="F187" s="1">
         <v>1.0</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>5.2356002E8</v>
+        <v>187.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D188" s="3">
+        <v>421</v>
+      </c>
+      <c r="D188" s="4">
         <v>1717.0</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>422</v>
+      <c r="E188" s="2">
+        <v>1.0</v>
       </c>
       <c r="F188" s="1">
         <v>2.0</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>5.2376093E8</v>
+        <v>188.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D189" s="3">
+        <v>424</v>
+      </c>
+      <c r="D189" s="4">
         <v>3202.0</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>422</v>
+      <c r="E189" s="2">
+        <v>1.0</v>
       </c>
       <c r="F189" s="1">
         <v>3.0</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>5.2386E8</v>
+        <v>189.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D190" s="3">
+        <v>427</v>
+      </c>
+      <c r="D190" s="4">
         <v>3511.0</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>422</v>
+      <c r="E190" s="2">
+        <v>1.0</v>
       </c>
       <c r="F190" s="1">
         <v>4.0</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>5.2304005E8</v>
+        <v>190.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D191" s="3">
+        <v>430</v>
+      </c>
+      <c r="D191" s="4">
         <v>5366.0</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>422</v>
+      <c r="E191" s="2">
+        <v>1.0</v>
       </c>
       <c r="F191" s="1">
         <v>5.0</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>5.23610066E8</v>
+        <v>191.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D192" s="3">
+        <v>433</v>
+      </c>
+      <c r="D192" s="4">
         <v>1216.0</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>422</v>
+      <c r="E192" s="2">
+        <v>1.0</v>
       </c>
       <c r="F192" s="1">
         <v>6.0</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>5.23250066E8</v>
+        <v>192.0</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D193" s="3">
+      <c r="D193" s="4">
         <v>2652.0</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>422</v>
+      <c r="E193" s="2">
+        <v>1.0</v>
       </c>
       <c r="F193" s="1">
         <v>7.0</v>
@@ -6471,19 +5787,19 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>5.23290066E8</v>
+        <v>193.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D194" s="3">
+        <v>436</v>
+      </c>
+      <c r="D194" s="4">
         <v>2652.0</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>422</v>
+      <c r="E194" s="2">
+        <v>1.0</v>
       </c>
       <c r="F194" s="1">
         <v>8.0</v>
@@ -6491,124 +5807,81 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>5.23610066E8</v>
+        <v>194.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D195" s="3">
+        <v>437</v>
+      </c>
+      <c r="D195" s="4">
         <v>1216.0</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>422</v>
+      <c r="E195" s="2">
+        <v>1.0</v>
       </c>
       <c r="F195" s="1">
         <v>9.0</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>5.23610066E8</v>
+        <v>195.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D196" s="1">
         <v>833.0</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>422</v>
+      <c r="E196" s="2">
+        <v>1.0</v>
       </c>
       <c r="F196" s="1">
         <v>10.0</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>5.2324007E8</v>
+        <v>196.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D197" s="3">
+        <v>439</v>
+      </c>
+      <c r="D197" s="4">
         <v>6226.0</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>422</v>
+      <c r="E197" s="2">
+        <v>1.0</v>
       </c>
       <c r="F197" s="1">
         <v>11.0</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1">
-        <v>5.26100965E8</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D198" s="3">
-        <v>1242.0</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F198" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>447</v>
-      </c>
+      <c r="D198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="1">
-        <v>5.26100052E8</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D199" s="3">
-        <v>1242.0</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F199" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="D199" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
